--- a/bot/nlp/izfir.xlsx
+++ b/bot/nlp/izfir.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Андрей\Desktop\izfir_bot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Андрей\Desktop\nlp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4305786B-CA18-4563-892D-A020B5B8C14F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D1345B7-4951-46F3-97DD-6D657C918441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7338FD3A-4107-422B-BD92-9E2DE32E64C7}"/>
   </bookViews>
@@ -264,13 +264,13 @@
     <t xml:space="preserve">Какая стоимость обучения в магистратуре? </t>
   </si>
   <si>
-    <t xml:space="preserve">Ответ: 283,5 тыс.рублей в год (очная форма обучения), 105,0 тыс. рублей в год (очно-заочная форма обучения), 70,0 тыс.руб. в год (заочная форма обучения), 141,0 тыс. рублей в год (сниженная стоимость, очная форма обучения)
+    <t>Какая цена обучения в магистратуре?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">283,5 тыс.рублей в год (очная форма обучения), 105,0 тыс. рублей в год (очно-заочная форма обучения), 70,0 тыс.руб. в год (заочная форма обучения), 141,0 тыс. рублей в год (сниженная стоимость, очная форма обучения)
 Важно: Лицам, поступающим в Институт зарубежной филологии и регионоведения, при предъявлении сертификата Языкового центра Института зарубежной филологии и регионоведения о прохождении Кембриджских сертификатов FCE (B2) или CAE (C1) (очная форма обучения).
 ВСЕ критерии сниженных расценок за обучение, информация об образовательном кредите см. на https://priem.s-vfu.ru/kommbs2022/
 </t>
-  </si>
-  <si>
-    <t>Какая цена обучения в магистратуре?</t>
   </si>
 </sst>
 </file>
@@ -649,8 +649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01519C32-BA96-465E-AB8D-D712C38C8F25}">
   <dimension ref="A1:B60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59:B60"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -969,15 +969,15 @@
         <v>65</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>66</v>
+      </c>
+      <c r="B60" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>
